--- a/Scenarios_Sensitivities.xlsx
+++ b/Scenarios_Sensitivities.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\SWITCH\india_ED\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Electricity_Models\renewable_energy_value\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -494,7 +494,7 @@
   <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,6 +505,7 @@
     <col min="4" max="4" width="30.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.28515625" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">

--- a/Scenarios_Sensitivities.xlsx
+++ b/Scenarios_Sensitivities.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="81">
   <si>
     <t>Scenarios</t>
   </si>
@@ -95,12 +96,6 @@
     <t>Nuclear 64 GW</t>
   </si>
   <si>
-    <t>Battery Storage 5% daily energy</t>
-  </si>
-  <si>
-    <t>Battery Storage 10% daily energy</t>
-  </si>
-  <si>
     <t>Demand response 5% daily energy</t>
   </si>
   <si>
@@ -162,6 +157,117 @@
   </si>
   <si>
     <t>55min</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>add FGD and other adders from CEA report</t>
+  </si>
+  <si>
+    <t>Battery Storage 20% peak ~ 60 GW</t>
+  </si>
+  <si>
+    <t>Battery Storage 10% peak ~ 30 GW</t>
+  </si>
+  <si>
+    <t>Battery Storage 15% peak ~ 45 GW</t>
+  </si>
+  <si>
+    <t>Battery Storage 5% peak ~ 15 GW</t>
+  </si>
+  <si>
+    <t>CANCEL; just compare DR to storage in text. Storage efficiency, which leads to additional energy for charging is akin to DR rebound whre consumption may increase in non-peak hours.</t>
+  </si>
+  <si>
+    <t>CANCEL?</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>I don't have capacity costs for nuclear. Can only determine energy value</t>
+  </si>
+  <si>
+    <t>stobat15</t>
+  </si>
+  <si>
+    <t>stobat30</t>
+  </si>
+  <si>
+    <t>stobat45</t>
+  </si>
+  <si>
+    <t>stobat60</t>
+  </si>
+  <si>
+    <t>nuc64</t>
+  </si>
+  <si>
+    <t>hydroHE25p</t>
+  </si>
+  <si>
+    <t>hydroLE25p</t>
+  </si>
+  <si>
+    <t>high energy</t>
+  </si>
+  <si>
+    <t>low energy</t>
+  </si>
+  <si>
+    <t>Wind 100m HH</t>
+  </si>
+  <si>
+    <t>Wind 120m HH</t>
+  </si>
+  <si>
+    <t>Solar 1axis tracking</t>
+  </si>
+  <si>
+    <t>Solar 45deg Southwest</t>
+  </si>
+  <si>
+    <t>Solar 90deg West</t>
+  </si>
+  <si>
+    <t>that's 15% of solar 200 GW target</t>
+  </si>
+  <si>
+    <t>that's 30% of solar 200 GW target</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>screening curve</t>
+  </si>
+  <si>
+    <t>econ dispatch script</t>
+  </si>
+  <si>
+    <t>R script</t>
+  </si>
+  <si>
+    <t>input file with extension</t>
+  </si>
+  <si>
+    <t>loadMod2014</t>
+  </si>
+  <si>
+    <t>wind100</t>
+  </si>
+  <si>
+    <t>wind120</t>
+  </si>
+  <si>
+    <t>solar1A</t>
+  </si>
+  <si>
+    <t>solar45deg</t>
+  </si>
+  <si>
+    <t>solar90deg</t>
   </si>
 </sst>
 </file>
@@ -491,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,14 +612,16 @@
     <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.28515625" customWidth="1"/>
     <col min="7" max="7" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1"/>
+    <col min="9" max="9" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -530,13 +638,19 @@
         <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -547,7 +661,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>200</v>
       </c>
@@ -555,7 +669,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>200</v>
       </c>
@@ -563,7 +677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>200</v>
       </c>
@@ -571,7 +685,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>200</v>
       </c>
@@ -579,7 +693,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>200</v>
       </c>
@@ -587,7 +701,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>300</v>
       </c>
@@ -595,7 +709,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>300</v>
       </c>
@@ -603,7 +717,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>300</v>
       </c>
@@ -611,7 +725,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>300</v>
       </c>
@@ -619,7 +733,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>300</v>
       </c>
@@ -627,7 +741,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>400</v>
       </c>
@@ -635,7 +749,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>400</v>
       </c>
@@ -643,7 +757,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>400</v>
       </c>
@@ -651,7 +765,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>400</v>
       </c>
@@ -659,7 +773,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>400</v>
       </c>
@@ -667,143 +781,309 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>14</v>
       </c>
       <c r="G24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D25" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G25" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="H25" t="s">
+        <v>71</v>
+      </c>
+      <c r="I25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="H26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F27" t="s">
         <v>16</v>
       </c>
       <c r="G27" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="H27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F28" t="s">
         <v>17</v>
       </c>
       <c r="G28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="H28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F29" t="s">
         <v>18</v>
       </c>
       <c r="G29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="H29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
         <v>19</v>
       </c>
       <c r="G30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D31" t="s">
+        <v>42</v>
+      </c>
+      <c r="H30" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D31" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D32" t="s">
+      <c r="G31" t="s">
+        <v>59</v>
+      </c>
+      <c r="H31" t="s">
+        <v>74</v>
+      </c>
+      <c r="I31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D32" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="33" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
+      <c r="G32" t="s">
+        <v>60</v>
+      </c>
+      <c r="H32" t="s">
+        <v>74</v>
+      </c>
+      <c r="I32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D33" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="34" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D34" t="s">
+      <c r="G33" t="s">
+        <v>58</v>
+      </c>
+      <c r="I33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D34" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G34" t="s">
+        <v>54</v>
+      </c>
+      <c r="H34" t="s">
+        <v>74</v>
+      </c>
+      <c r="I34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D35" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G35" t="s">
+        <v>55</v>
+      </c>
+      <c r="H35" t="s">
+        <v>74</v>
+      </c>
+      <c r="I35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G36" t="s">
+        <v>56</v>
+      </c>
+      <c r="H36" t="s">
+        <v>74</v>
+      </c>
+      <c r="I36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" t="s">
+        <v>57</v>
+      </c>
+      <c r="H37" t="s">
+        <v>74</v>
+      </c>
+      <c r="I37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D38" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="35" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D35" t="s">
+      <c r="I38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D39" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D36" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D37" t="s">
+      <c r="I39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D40" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="38" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D38" t="s">
-        <v>28</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="F40" t="s">
+        <v>31</v>
+      </c>
+      <c r="I40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>27</v>
+      </c>
+      <c r="F41" t="s">
+        <v>32</v>
+      </c>
+      <c r="I41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D42" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="39" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D39" t="s">
-        <v>29</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="G42" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="40" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D40" t="s">
+      <c r="I43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D44" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="41" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D41" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="42" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D42" t="s">
-        <v>37</v>
+      <c r="I44" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D45" t="s">
+        <v>63</v>
+      </c>
+      <c r="G45" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D46" t="s">
+        <v>64</v>
+      </c>
+      <c r="G46" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="47" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D47" t="s">
+        <v>65</v>
+      </c>
+      <c r="G47" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="48" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D48" t="s">
+        <v>66</v>
+      </c>
+      <c r="G48" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D49" t="s">
+        <v>67</v>
+      </c>
+      <c r="G49" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Scenarios_Sensitivities.xlsx
+++ b/Scenarios_Sensitivities.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18930" windowHeight="7365"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18930" windowHeight="7365" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="112">
   <si>
     <t>Scenarios</t>
   </si>
@@ -189,18 +190,6 @@
     <t>I don't have capacity costs for nuclear. Can only determine energy value</t>
   </si>
   <si>
-    <t>stobat15</t>
-  </si>
-  <si>
-    <t>stobat30</t>
-  </si>
-  <si>
-    <t>stobat45</t>
-  </si>
-  <si>
-    <t>stobat60</t>
-  </si>
-  <si>
     <t>nuc64</t>
   </si>
   <si>
@@ -268,6 +257,111 @@
   </si>
   <si>
     <t>solar90deg</t>
+  </si>
+  <si>
+    <t>wind80/100/120</t>
+  </si>
+  <si>
+    <t>solar0/45/90/1A</t>
+  </si>
+  <si>
+    <t>hydro0/HE25/LE25</t>
+  </si>
+  <si>
+    <t>nuc0/64</t>
+  </si>
+  <si>
+    <t>coalLC/HC</t>
+  </si>
+  <si>
+    <t>net load script</t>
+  </si>
+  <si>
+    <t>screening curve script</t>
+  </si>
+  <si>
+    <t>70min/55min</t>
+  </si>
+  <si>
+    <t>cost summary R script</t>
+  </si>
+  <si>
+    <t>loadMod</t>
+  </si>
+  <si>
+    <t>gasLC/HC</t>
+  </si>
+  <si>
+    <t>stoBat15</t>
+  </si>
+  <si>
+    <t>stoBat30</t>
+  </si>
+  <si>
+    <t>stoBat45</t>
+  </si>
+  <si>
+    <t>stoBat60</t>
+  </si>
+  <si>
+    <t>stoBat30/60</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Capacity value</t>
+  </si>
+  <si>
+    <t>Energy value</t>
+  </si>
+  <si>
+    <t>solarLC10p/20p/30p</t>
+  </si>
+  <si>
+    <t>windLC10p/20p/30p</t>
+  </si>
+  <si>
+    <t>Simulations</t>
+  </si>
+  <si>
+    <t>S200W00</t>
+  </si>
+  <si>
+    <t>lookahead</t>
+  </si>
+  <si>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>hours</t>
+  </si>
+  <si>
+    <t>estimated time for 16 mixes and targets</t>
+  </si>
+  <si>
+    <t>nolookahead</t>
+  </si>
+  <si>
+    <t>battery30</t>
+  </si>
+  <si>
+    <t>no battery</t>
+  </si>
+  <si>
+    <t>econ dispatch net load script</t>
+  </si>
+  <si>
+    <t>mins</t>
+  </si>
+  <si>
+    <t>scenario</t>
+  </si>
+  <si>
+    <t>coal_cost</t>
   </si>
 </sst>
 </file>
@@ -311,12 +405,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -597,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+    <sheetView topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,7 +739,7 @@
         <v>36</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>44</v>
@@ -795,7 +890,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
+      <c r="D24" s="2" t="s">
         <v>14</v>
       </c>
       <c r="G24" t="s">
@@ -810,21 +905,21 @@
         <v>38</v>
       </c>
       <c r="H25" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I25" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E26" t="s">
+      <c r="E26" s="2" t="s">
         <v>28</v>
       </c>
       <c r="G26" t="s">
         <v>43</v>
       </c>
       <c r="H26" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -835,7 +930,7 @@
         <v>40</v>
       </c>
       <c r="H27" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -846,7 +941,7 @@
         <v>39</v>
       </c>
       <c r="H28" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -857,7 +952,7 @@
         <v>41</v>
       </c>
       <c r="H29" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -868,7 +963,7 @@
         <v>42</v>
       </c>
       <c r="H30" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -876,13 +971,13 @@
         <v>20</v>
       </c>
       <c r="G31" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="H31" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I31" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -890,13 +985,13 @@
         <v>21</v>
       </c>
       <c r="G32" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H32" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I32" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.25">
@@ -904,21 +999,21 @@
         <v>22</v>
       </c>
       <c r="G33" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="I33" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="3" t="s">
         <v>49</v>
       </c>
       <c r="G34" t="s">
-        <v>54</v>
+        <v>88</v>
       </c>
       <c r="H34" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I34" t="s">
         <v>52</v>
@@ -929,24 +1024,24 @@
         <v>47</v>
       </c>
       <c r="G35" t="s">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="H35" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I35" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G36" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="H36" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I36" t="s">
         <v>52</v>
@@ -957,13 +1052,13 @@
         <v>46</v>
       </c>
       <c r="G37" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="H37" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="I37" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="4:9" x14ac:dyDescent="0.25">
@@ -1009,7 +1104,7 @@
         <v>33</v>
       </c>
       <c r="G42" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="4:9" x14ac:dyDescent="0.25">
@@ -1030,42 +1125,190 @@
     </row>
     <row r="45" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G45" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="46" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D46" t="s">
-        <v>64</v>
+      <c r="D46" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="G46" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D47" t="s">
-        <v>65</v>
+      <c r="D47" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="G47" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G48" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G49" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D54" t="s">
+        <v>82</v>
+      </c>
+      <c r="E54" t="s">
+        <v>83</v>
+      </c>
+      <c r="F54" t="s">
+        <v>68</v>
+      </c>
+      <c r="G54" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D55" t="s">
+        <v>77</v>
+      </c>
+      <c r="E55" t="s">
+        <v>81</v>
+      </c>
+      <c r="F55" t="s">
+        <v>84</v>
+      </c>
+      <c r="G55" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>78</v>
+      </c>
+      <c r="E56" t="s">
+        <v>87</v>
+      </c>
+      <c r="G56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="57" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
         <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D60" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
+        <v>93</v>
+      </c>
+      <c r="E63" t="s">
+        <v>94</v>
+      </c>
+      <c r="F63" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D64" t="s">
+        <v>96</v>
+      </c>
+      <c r="E64" t="s">
+        <v>77</v>
+      </c>
+      <c r="F64" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="65" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D65" t="s">
+        <v>97</v>
+      </c>
+      <c r="E65" t="s">
+        <v>78</v>
+      </c>
+      <c r="F65" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D66" t="s">
+        <v>92</v>
+      </c>
+      <c r="E66" t="s">
+        <v>79</v>
+      </c>
+      <c r="F66" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E67" t="s">
+        <v>80</v>
+      </c>
+      <c r="F67" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E68" t="s">
+        <v>86</v>
+      </c>
+      <c r="F68" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="69" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E69" t="s">
+        <v>92</v>
+      </c>
+      <c r="F69" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="70" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E70" t="s">
+        <v>81</v>
+      </c>
+      <c r="F70" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="E71" t="s">
+        <v>87</v>
+      </c>
+      <c r="F71" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="72" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="F72" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1076,14 +1319,164 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="6" max="6" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3">
+        <v>216</v>
+      </c>
+      <c r="E3">
+        <f>D3/60</f>
+        <v>3.6</v>
+      </c>
+      <c r="F3">
+        <f>E3*15</f>
+        <v>54</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4">
+        <v>88</v>
+      </c>
+      <c r="E4">
+        <f>D4/60</f>
+        <v>1.4666666666666666</v>
+      </c>
+      <c r="F4">
+        <f>E4*15</f>
+        <v>22</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E6" si="0">D5/60</f>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ref="F5:F6" si="1">E5*15</f>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6">
+        <v>89</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>1.4833333333333334</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>22.25</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>